--- a/Process Results/Unified_IBNP_GTL.xlsx
+++ b/Process Results/Unified_IBNP_GTL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735D22FC-4C47-4323-A2B3-59EFB579DE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1D36CA3-2BA1-401E-A70C-0B58DDAC8D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process Results/Unified_IBNP_GTL.xlsx
+++ b/Process Results/Unified_IBNP_GTL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4230322261337207</v>
+        <v>0.02960787729707781</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2334042544322846</v>
+        <v>0.1778904854715235</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.180173021968274</v>
+        <v>0.1204068265099322</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.2033629614630337</v>
+        <v>0.14360993519961</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4230322261337207</v>
+        <v>0.02960787729707781</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.246824999062141</v>
+        <v>0.1778904854715235</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1905329707314498</v>
+        <v>0.1204068265099322</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2150563317471582</v>
+        <v>0.14360993519961</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4230322261337207</v>
+        <v>0.02960787729707781</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4366903829560956</v>
+        <v>0.1778904854715235</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2982025719204131</v>
+        <v>0.324451585842168</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3543977240938453</v>
+        <v>0.22979102652713</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5829847096469682</v>
+        <v>0.03967714686814098</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5560177461484009</v>
+        <v>0.2011043065345348</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.3871531966396573</v>
+        <v>0.3695507570508592</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.4564687863970876</v>
+        <v>0.2604664480118269</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7469612458663745</v>
+        <v>0.08365202362285587</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6644407659929198</v>
+        <v>0.2722387694587776</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5234012719660956</v>
+        <v>0.4833603396732131</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5855477933149564</v>
+        <v>0.3483048682494563</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8969702444729161</v>
+        <v>0.08839856115118194</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.753271236276246</v>
+        <v>0.2802202140831772</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5677347901411309</v>
+        <v>0.5225669666282526</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.647473635538926</v>
+        <v>0.3648135664836995</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8969702444729161</v>
+        <v>0.1370983954081874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9106827506472334</v>
+        <v>0.3283250390194261</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6335127992018565</v>
+        <v>0.5728370686582206</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.7472229519166234</v>
+        <v>0.4174093680074276</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8969702444729161</v>
+        <v>0.1744145259093415</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9548075166777216</v>
+        <v>0.3969940509383374</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8788688110871209</v>
+        <v>0.6394361271027955</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9152657252465892</v>
+        <v>0.489859025322178</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.921910100755065</v>
+        <v>0.2078553590112999</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9651282962242089</v>
+        <v>0.4483868099755665</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8868040248961933</v>
+        <v>0.6785804708019892</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9243098658324992</v>
+        <v>0.5399740308426559</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9556099926245788</v>
+        <v>0.2116247028277626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9766904502633612</v>
+        <v>0.4543218312407019</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8943358898136318</v>
+        <v>0.6836352616184084</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.933700722644894</v>
+        <v>0.5458736992953487</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9801585277759679</v>
+        <v>0.3251180851761054</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9863603361561732</v>
+        <v>0.6241260925214728</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9424226389493637</v>
+        <v>0.755489538916113</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9638910369420066</v>
+        <v>0.6835537712387749</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9801585277759679</v>
+        <v>0.4583195484204982</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9863603361561732</v>
+        <v>0.7290997477100495</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9432050862569694</v>
+        <v>0.8088419930339859</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9643001218182485</v>
+        <v>0.7669035535417239</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9831931309850968</v>
+        <v>0.772996330717926</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9886890444466345</v>
+        <v>0.9287178429398494</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9902426129322061</v>
+        <v>0.9018566316451848</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9894652188717367</v>
+        <v>0.9150901612701443</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9926657449952877</v>
+        <v>0.9967160956133005</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9968593102919773</v>
+        <v>0.9923602824401105</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9965516868385725</v>
+        <v>0.9394493138474811</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9967054748290286</v>
+        <v>0.9651802001806243</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4265,14 +4265,14 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1</v>
+        <v>0.9455281704590728</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1</v>
+        <v>0.9720015210429598</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4839,67 +4839,67 @@
         <v/>
       </c>
       <c r="D38" s="4" t="n">
-        <v/>
+        <v>1.133528888888889</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v/>
+        <v>17.84794780508461</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v/>
+        <v>1.012082569202366</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>2.008128571428572</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="n">
+        <v>1.065118128626537</v>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4" t="n">
+        <v>1.407580009993862</v>
+      </c>
+      <c r="Q38" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="I38" s="4" t="n">
-        <v>1.85367328500594</v>
-      </c>
-      <c r="J38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="4" t="n">
-        <v>1.067160713668932</v>
-      </c>
-      <c r="P38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="R38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4917,7 +4917,7 @@
         <v/>
       </c>
       <c r="E39" s="4" t="n">
-        <v/>
+        <v>1.717321997874601</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>1</v>
@@ -4926,52 +4926,52 @@
         <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>2.051980198019802</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.056603773584906</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>2.787475</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.022421725755388</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4989,34 +4989,34 @@
         <v/>
       </c>
       <c r="D40" s="4" t="n">
-        <v/>
+        <v>3.043165467625899</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.130025</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.292028937412889</v>
+        <v>3.018912529550827</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.017759284943751</v>
+        <v>1.195771339075959</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>1.049115913555992</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.031494918416048</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.011417357253675</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>1</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>1.018901997503121</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>1</v>
@@ -5061,34 +5061,34 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v/>
+        <v>1.2</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v/>
+        <v>1.070833333333333</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.528375733855186</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.022407170294494</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>1</v>
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>1.023564980544747</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>1</v>
@@ -5139,40 +5139,40 @@
         <v/>
       </c>
       <c r="D42" s="4" t="n">
-        <v>3.031</v>
+        <v>1.02249550089982</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.00989772352359</v>
+        <v>1.548547961278967</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.008540672982685</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.144664500478274</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.289892049308623</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>1.028680621329797</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>1.074580072757004</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>1</v>
@@ -5211,28 +5211,28 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v/>
+        <v>22.46666666666667</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.756379821958457</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.092592592592593</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.029661016949153</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>1</v>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.020463591822943</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>1</v>
@@ -5286,16 +5286,16 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1</v>
+        <v>1.709048723897912</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>1.013032853651914</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
@@ -5304,22 +5304,22 @@
         <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.238095238095238</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.138461538461538</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>1.016232109354061</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>1.264133884662838</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>0.9198838649859526</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
@@ -5358,16 +5358,16 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v/>
+        <v>1.0575</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v/>
+        <v>1.085106382978724</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v/>
+        <v>1.496732026143791</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.0518</v>
+        <v>1.62783114992722</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.228497813272485</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>1</v>
@@ -5385,19 +5385,19 @@
         <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>1.021661778381858</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>1.026257176086224</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.046434812488488</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5439,16 +5439,16 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.0182885</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.018904269271429</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
@@ -5457,25 +5457,25 @@
         <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>1.054073214285714</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>1.182057359122181</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>1.107488971631511</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.043371884513201</v>
+        <v>2.295504603064914</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.004566359348803</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5514,22 +5514,22 @@
         <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.30044358087105</v>
+        <v/>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.267750171779575</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.042438337096199</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.007008046749778</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.408316016960997</v>
+        <v>1.0121</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v>1.059837960675823</v>
       </c>
       <c r="J47" s="4" t="n">
         <v>1</v>
@@ -5538,16 +5538,16 @@
         <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>1.02330650288721</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.024605269956719</v>
+        <v>2.419651040119818</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>1.00608179569037</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5586,40 +5586,40 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.35</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.166666666666667</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.541209523809524</v>
+        <v/>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.047478686086582</v>
+        <v/>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H48" s="4" t="n">
-        <v>5.916121141090711</v>
+        <v/>
       </c>
       <c r="I48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5664,19 +5664,19 @@
         <v/>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.133528888888889</v>
+        <v/>
       </c>
       <c r="E49" s="4" t="n">
-        <v>17.84794780508461</v>
+        <v>2.290322580645161</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.012082569202366</v>
+        <v>2.834647887323944</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v>1.03009142402862</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>1.101391015270394</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.065118128626537</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>1</v>
@@ -5736,16 +5736,16 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v/>
+        <v>111.07</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v/>
+        <v>1.321779058251553</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.717321997874601</v>
+        <v>1.032676929364485</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>1.006665246330487</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>1</v>
@@ -5757,13 +5757,13 @@
         <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>2.051980198019802</v>
+        <v>1.072075472192628</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.703163103280939</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5814,28 +5814,28 @@
         <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v>3.043165467625899</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1</v>
+        <v>87.59111111111112</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1</v>
+        <v>1.152897300588594</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>3.018912529550827</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.195771339075959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.049115913555992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>4.814614480685524</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5886,13 +5886,13 @@
         <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.2</v>
+        <v>2.011666666666667</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.070833333333333</v>
+        <v>1.081285169842585</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1</v>
+        <v>1.252060973808209</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>1</v>
@@ -5961,25 +5961,25 @@
         <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.02249550089982</v>
+        <v>1.688571428571429</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.548547961278967</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>18.08736040609137</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.005970272123544</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6036,22 +6036,22 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>22.46666666666667</v>
+        <v/>
       </c>
       <c r="D54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v>1.243705430081692</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.756379821958457</v>
+        <v>1.038051489267821</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>1.187146816425311</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>1.712039678575695</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6111,19 +6111,19 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.709048723897912</v>
+        <v/>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.013032853651914</v>
+        <v/>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>1.0575</v>
+        <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.085106382978724</v>
+        <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.496732026143791</v>
+        <v>2.90935</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.62783114992722</v>
+        <v>1.137487754996821</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>1.787586686207261</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6264,10 +6264,10 @@
         <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1</v>
+        <v>1.091959096593835</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1</v>
+        <v>2.187605268476723</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6339,7 +6339,7 @@
         <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v/>
+        <v>1.586332075471698</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1844885467951466</v>
+        <v>0.136585220734477</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.180173021968274</v>
+        <v>0.1204068265099322</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.2334042544322846</v>
+        <v>0.1778904854715235</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.4230322261337207</v>
+        <v>0.02960787729707781</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.01569079615609338</v>
+        <v>0.0007442915761607485</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.01869605254347672</v>
+        <v>0.0002168979235364359</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.04080419629118331</v>
+        <v>0.0208316637553916</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.3618679010263547</v>
+        <v>0.002361677650866814</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.2033629614630337</v>
+        <v>0.14360993519961</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6737,10 +6737,10 @@
         <v>1.0575</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>1.0575</v>
+        <v/>
       </c>
       <c r="P2" s="22" t="n">
-        <v>1.0575</v>
+        <v/>
       </c>
       <c r="Q2" s="22" t="n">
         <v/>
@@ -6749,16 +6749,16 @@
         <v>1.0575</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>1.0575</v>
+        <v/>
       </c>
       <c r="T2" s="22" t="n">
-        <v>1.0575</v>
+        <v/>
       </c>
       <c r="U2" s="22" t="n">
         <v/>
       </c>
       <c r="V2" s="22" t="n">
-        <v>1.0575</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.1950966382358675</v>
+        <v>0.1444388709267094</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.1905329707314498</v>
+        <v>0.1204068265099322</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.246824999062141</v>
+        <v>0.1778904854715235</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.4230322261337207</v>
+        <v>0.02960787729707781</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.01659301693506875</v>
+        <v>0.0007870883417899915</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.01977107556472664</v>
+        <v>0.0002168979235364359</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.04315043757792635</v>
+        <v>0.0208316637553916</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.3618679010263547</v>
+        <v>0.002361677650866814</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.2150563317471582</v>
+        <v>0.14360993519961</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.565096952908587</v>
+        <v>1.950199789695058</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.565096952908587</v>
+        <v>2.69462783171521</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.769230769230769</v>
+        <v/>
       </c>
       <c r="Q3" s="22" t="n">
         <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>5.420354609929078</v>
+        <v>19.97620567375887</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>5.420354609929078</v>
+        <v>38.02722222222223</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>8.183924349881796</v>
+        <v/>
       </c>
       <c r="U3" s="22" t="n">
         <v/>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.667163861069678</v>
+        <v>1.347313915857605</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.3053451540256652</v>
+        <v>0.2816846557050603</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.2982025719204131</v>
+        <v>0.324451585842168</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.4366903829560956</v>
+        <v>0.1778904854715235</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.4230322261337207</v>
+        <v>0.02960787729707781</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.08994003583663115</v>
+        <v>0.01572303859901468</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.1071662405805222</v>
+        <v>0.008248025537858614</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.3531399168020459</v>
+        <v>0.0208316637553916</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.3618679010263547</v>
+        <v>0.002361677650866814</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.3543977240938453</v>
+        <v>0.22979102652713</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.407473763624151</v>
+        <v>1.218389016132245</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.298289260707598</v>
+        <v>1.139001235243245</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.273253929671042</v>
+        <v>1.1304950121502</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.378109452736318</v>
+        <v>1.340087520291668</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.463728763451954</v>
+        <v>1.447192548095046</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.394291418832736</v>
+        <v>1.459909603591387</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.245655250188304</v>
+        <v>1.655242520127392</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.248366013071895</v>
+        <v>1.862547057355178</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.28577159518932</v>
+        <v>1.134748123696722</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.429765293140899</v>
+        <v>0.3432014905240385</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.3871531966396573</v>
+        <v>0.3695507570508592</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.5560177461484009</v>
+        <v>0.2011043065345348</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.5829847096469682</v>
+        <v>0.03967714686814098</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.1316478174399766</v>
+        <v>0.02275426429390483</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.1494209696299866</v>
+        <v>0.01204137169338681</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.4398905914155296</v>
+        <v>0.03448145561292085</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.4517435888629657</v>
+        <v>0.004398735759043474</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.4564687863970876</v>
+        <v>0.2604664480118269</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.272651651496859</v>
+        <v>1.373496599769111</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.351922899020387</v>
+        <v>1.307967391355367</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.194999207481376</v>
+        <v>1.353719242268077</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.281270732329676</v>
+        <v>2.108317513375056</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>2.226583699183125</v>
+        <v>7.027202878683419</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>2.630303455283868</v>
+        <v>9.973497004848422</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.19823532747635</v>
+        <v>1.364171885472689</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.213621334526378</v>
+        <v>1.662546511736772</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.273461053250882</v>
+        <v>1.330843316811722</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.5469415100717967</v>
+        <v>0.4713860802704578</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.5234012719660956</v>
+        <v>0.4833603396732131</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.6644407659929198</v>
+        <v>0.2722387694587776</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.7469612458663745</v>
+        <v>0.08365202362285587</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.2931248843448878</v>
+        <v>0.1598988315484514</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.3930224927096196</v>
+        <v>0.1200945845182599</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.5270924468585524</v>
+        <v>0.04703863231732106</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.5482456571796079</v>
+        <v>0.007313102792249529</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.5855477933149564</v>
+        <v>0.3483048682494563</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.089700550850126</v>
+        <v>1.106020413694853</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.084702732969107</v>
+        <v>1.081112627034204</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.13369208337267</v>
+        <v>1.029317810392205</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.200825677954084</v>
+        <v>1.056741454931512</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.223154452677711</v>
+        <v>1.243756856260852</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.071531617861967</v>
+        <v>1.337540416527366</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.126063303659743</v>
+        <v>1.195707095212735</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.252126607319486</v>
+        <v>1.412819087737541</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.109197408170889</v>
+        <v>1.055215218713204</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.5960024648080364</v>
+        <v>0.5213626275107268</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.5677347901411309</v>
+        <v>0.5225669666282526</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.753271236276246</v>
+        <v>0.2802202140831772</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8969702444729161</v>
+        <v>0.08839856115118194</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.3585370074770884</v>
+        <v>0.1988752680464855</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.421136027469282</v>
+        <v>0.1606313605992344</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.5935394620436388</v>
+        <v>0.05624442641092386</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.6864729747019442</v>
+        <v>0.01033209121547684</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.647473635538926</v>
+        <v>0.3648135664836995</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.126660187619386</v>
+        <v>1.13188104066357</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.115860451399102</v>
+        <v>1.096198392244969</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.208970563045978</v>
+        <v>1.171667932999188</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>1.550912069413862</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.464084612633121</v>
+        <v>2.207719448506008</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.170402070464336</v>
+        <v>2.73045986465453</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.336485421591805</v>
+        <v>4.454901444503337</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>9.637253611258341</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.16241550722254</v>
+        <v>1.133933162622078</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.6714922488222391</v>
+        <v>0.5901204733899347</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.6335127992018565</v>
+        <v>0.5728370686582206</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9106827506472334</v>
+        <v>0.3283250390194261</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.8969702444729161</v>
+        <v>0.1370983954081874</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.5249285157067316</v>
+        <v>0.4390607970930716</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.4928984784971731</v>
+        <v>0.4385974831210584</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.7932568381607656</v>
+        <v>0.2505633764632864</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.6864729747019442</v>
+        <v>0.09957298337820479</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.7472229519166234</v>
+        <v>0.4174093680074276</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.303234658336684</v>
+        <v>1.10351422218463</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.387294482754541</v>
+        <v>1.116261782081548</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.048452401233172</v>
+        <v>1.209149482244783</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1</v>
+        <v>1.272185027330565</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.356689569906751</v>
+        <v>1.063831377057628</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.486774908582729</v>
+        <v>1.075048244895099</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.03262855651266</v>
+        <v>1.135571782307681</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1</v>
+        <v>1.237346559525232</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.217873441993856</v>
+        <v>1.162705632163166</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8751119714695823</v>
+        <v>0.6512063351881193</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8788688110871209</v>
+        <v>0.6394361271027955</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9548075166777216</v>
+        <v>0.3969940509383374</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.8969702444729161</v>
+        <v>0.1744145259093415</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.712165042205955</v>
+        <v>0.4670866523835421</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.7328290903082005</v>
+        <v>0.4715134544447016</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.819139663733748</v>
+        <v>0.2845326999914447</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.6864729747019442</v>
+        <v>0.1232062884046848</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9152657252465892</v>
+        <v>0.489859025322178</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.012754782256137</v>
+        <v>1.050707047748358</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.009028894539171</v>
+        <v>1.06121697232928</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.010809277646241</v>
+        <v>1.129454733429271</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.027804552532068</v>
+        <v>1.191731926728056</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.071305277291073</v>
+        <v>1.06968275914721</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.023934262637602</v>
+        <v>1.088817352733281</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.008185985592665</v>
+        <v>1.167661712020591</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.016371971185331</v>
+        <v>1.335323424041182</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.009919086092706</v>
+        <v>1.095335852879276</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8862738341154155</v>
+        <v>0.6842270859205363</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8868040248961933</v>
+        <v>0.6785804708019892</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9651282962242089</v>
+        <v>0.4483868099755665</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.921910100755065</v>
+        <v>0.2078553590112999</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.7629461680174593</v>
+        <v>0.4996345390824611</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.7503688142241124</v>
+        <v>0.5133920312466043</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.8258451292194532</v>
+        <v>0.3322379395978514</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.6977118904632729</v>
+        <v>0.164520242895949</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9243098658324992</v>
+        <v>0.5399740308426559</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.009621058810046</v>
+        <v>1.012663946003146</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.008493268756104</v>
+        <v>1.007449066151941</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.011979914053278</v>
+        <v>1.013236386827389</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.036554423085193</v>
+        <v>1.018134455779212</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.074209075559</v>
+        <v>1.07854192563321</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.090136767914079</v>
+        <v>1.010512390539862</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.1753300330033</v>
+        <v>1.012012578698771</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.350660066006601</v>
+        <v>1.024025157397543</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.010236591404691</v>
+        <v>1.010342726489664</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8948007267952451</v>
+        <v>0.6928921007905237</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.8943358898136318</v>
+        <v>0.6836352616184084</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9766904502633612</v>
+        <v>0.4543218312407019</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9556099926245788</v>
+        <v>0.2116247028277626</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.8195636978473165</v>
+        <v>0.5388767978948588</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.8180046338817941</v>
+        <v>0.5187890087791215</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9706405829811148</v>
+        <v>0.3362289739939883</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9423715880267142</v>
+        <v>0.1684728676266061</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.933700722644894</v>
+        <v>0.5458736992953487</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.053231359246187</v>
+        <v>1.098980301034221</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.053768108474046</v>
+        <v>1.105106160158562</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.009900665958395</v>
+        <v>1.37375325067927</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.025688864014457</v>
+        <v>1.536295530870576</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.039291106427257</v>
+        <v>1.291675124772579</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.041122643033058</v>
+        <v>1.33486113484913</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.010853021437756</v>
+        <v>1.666111973301284</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.021706042875512</v>
+        <v>2.271538160228508</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.031834387216221</v>
+        <v>1.239429705418916</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9424321857370322</v>
+        <v>0.7614747695110038</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9424226389493637</v>
+        <v>0.755489538916113</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9863603361561732</v>
+        <v>0.6241260925214728</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9801585277759679</v>
+        <v>0.3251180851761054</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.851765262323352</v>
+        <v>0.6960537551578894</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.8516431464403024</v>
+        <v>0.6925112850061537</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9811749660365651</v>
+        <v>0.5601951193421899</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9628267461210868</v>
+        <v>0.3826925477769618</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9638910369420066</v>
+        <v>0.6835537712387749</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.000820112610366</v>
+        <v>1.062204586966683</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.000830250967313</v>
+        <v>1.070619712609676</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1</v>
+        <v>1.168193024528878</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1</v>
+        <v>1.409701795494527</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.001723628484192</v>
+        <v>1.065399283627209</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.001867264191208</v>
+        <v>1.070849223929477</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1</v>
+        <v>1.138993096299943</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1</v>
+        <v>1.234387701093646</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.000415125483657</v>
+        <v>1.119406368569277</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9432050862569694</v>
+        <v>0.8088419930339859</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9432050862569694</v>
+        <v>0.8088419930339859</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9863603361561732</v>
+        <v>0.7290997477100495</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9801585277759679</v>
+        <v>0.4583195484204982</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.8532333891913378</v>
+        <v>0.7415751721112442</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.8532333891913378</v>
+        <v>0.7415751721112442</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9811749660365651</v>
+        <v>0.6380583735116772</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9628267461210868</v>
+        <v>0.4723909742760742</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9643001218182485</v>
+        <v>0.7669035535417239</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.049869882341179</v>
+        <v>1.114997291698838</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.049869882341179</v>
+        <v>1.114997291698838</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.002360910313503</v>
+        <v>1.27378708586412</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.003096033063156</v>
+        <v>1.686588174957614</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.151958135600866</v>
+        <v>1.144208807724319</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.151958135600866</v>
+        <v>1.144208807724319</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.00410087832612</v>
+        <v>1.28500701681148</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.00820175665224</v>
+        <v>1.473217013373273</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.026115396327341</v>
+        <v>1.194392188781479</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9902426129322061</v>
+        <v>0.9018566316451848</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9902426129322061</v>
+        <v>0.9018566316451848</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9886890444466345</v>
+        <v>0.9287178429398494</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9831931309850968</v>
+        <v>0.772996330717926</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9828891442452617</v>
+        <v>0.8485168435193632</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9828891442452617</v>
+        <v>0.8485168435193632</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9851986451889159</v>
+        <v>0.8199094870978254</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9707236167910399</v>
+        <v>0.6959344202674888</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9894652188717367</v>
+        <v>0.9150901612701443</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.006371240566678</v>
+        <v>1.041683656673588</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.006371240566678</v>
+        <v>1.041683656673588</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.008263736602761</v>
+        <v>1.068527206604324</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.009634540469887</v>
+        <v>1.289418922192804</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.005981237297144</v>
+        <v>1.113097189943697</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.005981237297144</v>
+        <v>1.113097189943697</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.007228647418867</v>
+        <v>1.202564744675144</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.014457294837734</v>
+        <v>1.431834867688304</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.007317488584719</v>
+        <v>1.055105431638956</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9965516868385725</v>
+        <v>0.9394493138474811</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9965516868385725</v>
+        <v>0.9394493138474811</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9968593102919773</v>
+        <v>0.9923602824401105</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9926657449952877</v>
+        <v>0.9967160956133005</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9887680374537798</v>
+        <v>0.9444817141412984</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9887680374537798</v>
+        <v>0.9444817141412984</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9923202988325318</v>
+        <v>0.9859942430085249</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9847576543249393</v>
+        <v>0.9964631685634365</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9967054748290286</v>
+        <v>0.9651802001806243</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.00346024517039</v>
+        <v>1.006470659483156</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.00346024517039</v>
+        <v>1.006470659483156</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.003150584717018</v>
+        <v>1.007698532171304</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.007388443735154</v>
+        <v>1.003294723945116</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.011359552615742</v>
+        <v>1.010879320834093</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.011359552615742</v>
+        <v>1.010879320834093</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.007739135414748</v>
+        <v>1.014204704632696</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.015478270829496</v>
+        <v>1.003549385013058</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.003305414943704</v>
+        <v>1.00708459582723</v>
       </c>
     </row>
     <row r="16">
@@ -7599,10 +7599,10 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>1</v>
+        <v>0.9455281704590728</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>1</v>
+        <v>0.9455281704590728</v>
       </c>
       <c r="D16" s="34" t="n">
         <v>1</v>
@@ -7611,10 +7611,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>1</v>
+        <v>0.9547570337313754</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>1</v>
+        <v>0.9547570337313754</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>1</v>
@@ -7623,17 +7623,17 @@
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>1</v>
+        <v>0.9720015210429598</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1</v>
+        <v>1.057609948854808</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1</v>
+        <v>1.057609948854808</v>
       </c>
       <c r="P16" s="22" t="n">
         <v>1</v>
@@ -7642,10 +7642,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1</v>
+        <v>1.047386889721887</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1</v>
+        <v>1.047386889721887</v>
       </c>
       <c r="T16" s="22" t="n">
         <v>1</v>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1</v>
+        <v>1.028804974427404</v>
       </c>
     </row>
     <row r="17">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>80802.52500000001</v>
+        <v>74977.98416666668</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8611,70 +8611,70 @@
         <v/>
       </c>
       <c r="U8" s="22" t="n">
-        <v/>
+        <v>1125</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v/>
+        <v>1275.22</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v/>
+        <v>22760.06</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>700</v>
+        <v>23035.06</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>1405.69</v>
+        <v>23035.06</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>1405.69</v>
+        <v>23035.06</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>2605.69</v>
+        <v>23035.06</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>2605.69</v>
+        <v>23035.06</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>2605.69</v>
+        <v>24535.06</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>2605.69</v>
+        <v>24535.06</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>2605.69</v>
+        <v>24535.06</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>2605.69</v>
+        <v>24535.06</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>2780.69</v>
+        <v>24535.06</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>2780.69</v>
+        <v>34535.06</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>80000.80499999999</v>
+        <v>74528.8275</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8741,64 +8741,64 @@
         <v/>
       </c>
       <c r="V9" s="22" t="n">
-        <v/>
+        <v>941</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>5000</v>
+        <v>1616</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>5000</v>
+        <v>1616</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>5000</v>
+        <v>1616</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>5300</v>
+        <v>1616</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>5300</v>
+        <v>1616</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>5300</v>
+        <v>3316</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>5600</v>
+        <v>3316</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>5600</v>
+        <v>3316</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>15609.86</v>
+        <v>3316</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>15959.86</v>
+        <v>3316</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>15502.54</v>
+        <v>32645.62</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>79506.40666666666</v>
+        <v>73976.9975</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8865,64 +8865,64 @@
         <v/>
       </c>
       <c r="U10" s="22" t="n">
-        <v/>
+        <v>2780</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v/>
+        <v>8460</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>10000</v>
+        <v>8460</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>11300.25</v>
+        <v>8460</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>14600.25</v>
+        <v>25540</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>14859.54</v>
+        <v>30540</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>14859.54</v>
+        <v>32040</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>15327.54</v>
+        <v>32040</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>15327.54</v>
+        <v>32040</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>15327.54</v>
+        <v>32040</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32040</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32040</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32040</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32645.62</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32645.62</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32645.62</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32645.62</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32645.62</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32645.62</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>15502.54</v>
+        <v>32645.62</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>7985</v>
+        <v>13152.81</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>79200.78333333334</v>
+        <v>73669.02916666666</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8989,64 +8989,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v/>
+        <v>10000</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v/>
+        <v>12000</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v/>
+        <v>12850</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>5110</v>
+        <v>12850</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>7810</v>
+        <v>12850</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>7810</v>
+        <v>12850</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>7810</v>
+        <v>12850</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>7810</v>
+        <v>12850</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>7810</v>
+        <v>12850</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>7810</v>
+        <v>12850</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>7985</v>
+        <v>12850</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>7985</v>
+        <v>12850</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>7985</v>
+        <v>12850</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>7985</v>
+        <v>13152.81</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>7985</v>
+        <v>13152.81</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>7985</v>
+        <v>13152.81</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>7985</v>
+        <v>13152.81</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>7985</v>
+        <v>13152.81</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>7985</v>
+        <v>13152.81</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>7985</v>
+        <v>13152.81</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>45581.47</v>
+        <v>11670.81</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>78978.87666666666</v>
+        <v>73100.85583333332</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9119,58 +9119,58 @@
         <v/>
       </c>
       <c r="U12" s="22" t="n">
-        <v>10000</v>
+        <v>6668</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>30310</v>
+        <v>6818</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>30610</v>
+        <v>10558</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>30610</v>
+        <v>10558</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>30871.43</v>
+        <v>10558</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>35337.43</v>
+        <v>10558</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>35337.43</v>
+        <v>10558</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>35337.43</v>
+        <v>10558</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>45581.47</v>
+        <v>10558</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>45581.47</v>
+        <v>10558</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>45581.47</v>
+        <v>10558</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>45581.47</v>
+        <v>10860.81</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>45581.47</v>
+        <v>11670.81</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>45581.47</v>
+        <v>11670.81</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>45581.47</v>
+        <v>11670.81</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>45581.47</v>
+        <v>11670.81</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>45581.47</v>
+        <v>11670.81</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>45581.47</v>
+        <v>11670.81</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>6075</v>
+        <v>30200.62</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>78638.06083333334</v>
+        <v>72660.90083333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v/>
+        <v>750</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>600</v>
+        <v>16850</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>900</v>
+        <v>16850</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>900</v>
+        <v>16850</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>900</v>
+        <v>29595</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>5400</v>
+        <v>29595</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>5900</v>
+        <v>29595</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>5900</v>
+        <v>29595</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>6075</v>
+        <v>29595</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>6075</v>
+        <v>29595</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>6075</v>
+        <v>29595</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>6075</v>
+        <v>30200.62</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>6075</v>
+        <v>30200.62</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>6075</v>
+        <v>30200.62</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>6075</v>
+        <v>30200.62</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>6075</v>
+        <v>30200.62</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>6075</v>
+        <v>30200.62</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>6075</v>
+        <v>30200.62</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>2960</v>
+        <v>22045.21</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>77872.40416666666</v>
+        <v>71981.79916666666</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v/>
+        <v>10775</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>600</v>
+        <v>10775</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>600</v>
+        <v>18415</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>600</v>
+        <v>18655</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>2100</v>
+        <v>18655</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>2100</v>
+        <v>18655</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>2100</v>
+        <v>18655</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>2600</v>
+        <v>18655</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>2600</v>
+        <v>18655</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>2960</v>
+        <v>18655</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>2960</v>
+        <v>18957.81</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>2960</v>
+        <v>23965.21</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>2960</v>
+        <v>22045.21</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>2960</v>
+        <v>22045.21</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>2960</v>
+        <v>22045.21</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>2960</v>
+        <v>22045.21</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>2960</v>
+        <v>22045.21</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>6760.67</v>
+        <v>29313.62</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>77494.1825</v>
+        <v>71135.60833333332</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v/>
+        <v>10000</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v/>
+        <v>10575</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v/>
+        <v>11475</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>5000</v>
+        <v>17175</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>5259</v>
+        <v>27958</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>5259</v>
+        <v>27958</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>5259</v>
+        <v>27958</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>6460.67</v>
+        <v>27958</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>6460.67</v>
+        <v>27958</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>6460.67</v>
+        <v>27958</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>6460.67</v>
+        <v>28563.62</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>6460.67</v>
+        <v>28563.62</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>6460.67</v>
+        <v>29313.62</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>6460.67</v>
+        <v>29313.62</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>6760.67</v>
+        <v>29313.62</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>6760.67</v>
+        <v>29313.62</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>6760.67</v>
+        <v>29313.62</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>21650.77</v>
+        <v>17819.42</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>77290.54916666668</v>
+        <v>70269.655</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9627,46 +9627,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>20000</v>
+        <v>3600</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>20365.77</v>
+        <v>3600</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>20365.77</v>
+        <v>3600</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>20365.77</v>
+        <v>5600</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>20750.77</v>
+        <v>5600</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>20750.77</v>
+        <v>5600</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>20750.77</v>
+        <v>5600</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>20750.77</v>
+        <v>5902.81</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>20750.77</v>
+        <v>6977.460000000001</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>20750.77</v>
+        <v>7727.460000000001</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>20750.77</v>
+        <v>7727.460000000001</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>21650.77</v>
+        <v>17738.42</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>21650.77</v>
+        <v>17819.42</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>21650.77</v>
+        <v>17819.42</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>12492.51</v>
+        <v>26721.12</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>76862.0175</v>
+        <v>69750.66166666667</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9754,43 +9754,43 @@
         <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>5002.47</v>
+        <v/>
       </c>
       <c r="V17" s="22" t="n">
-        <v>6505.43</v>
+        <v>10000</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>8247.26</v>
+        <v>10000</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>8597.26</v>
+        <v>10000</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>8657.51</v>
+        <v>10000</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>12192.51</v>
+        <v>10121</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>12192.51</v>
+        <v>10726.62</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>12192.51</v>
+        <v>10726.62</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>12192.51</v>
+        <v>10726.62</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>12192.51</v>
+        <v>10976.62</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>12492.51</v>
+        <v>26559.59</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>12492.51</v>
+        <v>26559.59</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>12492.51</v>
+        <v>26721.12</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>60170.62</v>
+        <v>302.81</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>76284.39750000001</v>
+        <v>69511.60333333333</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>4000</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>5400</v>
+        <v/>
       </c>
       <c r="V18" s="22" t="n">
-        <v>6300</v>
+        <v/>
       </c>
       <c r="W18" s="22" t="n">
-        <v>9709.619999999999</v>
+        <v/>
       </c>
       <c r="X18" s="22" t="n">
-        <v>10170.62</v>
+        <v/>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>10170.62</v>
+        <v/>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>60170.62</v>
+        <v>302.81</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>60170.62</v>
+        <v>302.81</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>60170.62</v>
+        <v>302.81</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>60170.62</v>
+        <v>302.81</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>60170.62</v>
+        <v>302.81</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>60170.62</v>
+        <v>302.81</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>60170.62</v>
+        <v>302.81</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>24535.06</v>
+        <v>11416.81</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>74977.98416666668</v>
+        <v>69002.14333333333</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10011,37 +10011,37 @@
         <v/>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1125</v>
+        <v/>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1275.22</v>
+        <v>1550</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>22760.06</v>
+        <v>3550</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>23035.06</v>
+        <v>10063</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>23035.06</v>
+        <v>10365.81</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>23035.06</v>
+        <v>11416.81</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>23035.06</v>
+        <v>11416.81</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>23035.06</v>
+        <v>11416.81</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>24535.06</v>
+        <v>11416.81</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>24535.06</v>
+        <v>11416.81</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>24535.06</v>
+        <v>11416.81</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>3316</v>
+        <v>27866.78</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>74528.8275</v>
+        <v>68422.97333333333</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10144,37 +10144,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v/>
+        <v>11107</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>941</v>
+        <v>14681</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>1616</v>
+        <v>15160.73</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>1616</v>
+        <v>15261.78</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>1616</v>
+        <v>15261.78</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>1616</v>
+        <v>15261.78</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>1616</v>
+        <v>15261.78</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>3316</v>
+        <v>16361.78</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>3316</v>
+        <v>16361.78</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>3316</v>
+        <v>27866.78</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>32040</v>
+        <v>21878.86</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>73976.9975</v>
+        <v>68103.72333333333</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10283,31 +10283,31 @@
         <v/>
       </c>
       <c r="U21" s="22" t="n">
-        <v>2780</v>
+        <v>45</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>8460</v>
+        <v>45</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>8460</v>
+        <v>3941.6</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>8460</v>
+        <v>4544.26</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>25540</v>
+        <v>4544.26</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>30540</v>
+        <v>4544.26</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>32040</v>
+        <v>4544.26</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>32040</v>
+        <v>4544.26</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>32040</v>
+        <v>21878.86</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>12850</v>
+        <v>40851.97</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>73669.02916666666</v>
+        <v>67665.97500000001</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10416,31 +10416,31 @@
         <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>12000</v>
+        <v>30175</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>12850</v>
+        <v>32627.78</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>12850</v>
+        <v>40851.97</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>12850</v>
+        <v>40851.97</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>12850</v>
+        <v>40851.97</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>12850</v>
+        <v>40851.97</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>12850</v>
+        <v>40851.97</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>12850</v>
+        <v>40851.97</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>10558</v>
+        <v>21443.08</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>73100.85583333332</v>
+        <v>67122.17333333334</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10552,28 +10552,28 @@
         <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v/>
+        <v>350</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>6668</v>
+        <v>350</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>6818</v>
+        <v>591</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>10558</v>
+        <v>591</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>10558</v>
+        <v>591</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>10558</v>
+        <v>10689.63</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>10558</v>
+        <v>10689.63</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>10558</v>
+        <v>21443.08</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>29595</v>
+        <v>54604.29000000001</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>72660.90083333333</v>
+        <v>66819.17666666667</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10690,25 +10690,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>750</v>
+        <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v>16850</v>
+        <v>20810</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>16850</v>
+        <v>20810</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>16850</v>
+        <v>25881.51</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>29595</v>
+        <v>26866.34</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>29595</v>
+        <v>31894.29</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>29595</v>
+        <v>54604.29000000001</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>18655</v>
+        <v>947.3299999999999</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>71981.79916666666</v>
+        <v>66590.50666666667</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>10775</v>
+        <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v>10775</v>
+        <v/>
       </c>
       <c r="V25" s="22" t="n">
-        <v>18415</v>
+        <v/>
       </c>
       <c r="W25" s="22" t="n">
-        <v>18655</v>
+        <v/>
       </c>
       <c r="X25" s="22" t="n">
-        <v>18655</v>
+        <v/>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>18655</v>
+        <v>947.3299999999999</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>27958</v>
+        <v>1183.15</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>71135.60833333332</v>
+        <v>66219.25083333334</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>10000</v>
+        <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>10575</v>
+        <v/>
       </c>
       <c r="U26" s="22" t="n">
-        <v>11475</v>
+        <v>200</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>17175</v>
+        <v>581.87</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>27958</v>
+        <v>661.87</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>27958</v>
+        <v>1183.15</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>3600</v>
+        <v>15585.9</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>70269.655</v>
+        <v>65710.0825</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11107,13 +11107,13 @@
         <v/>
       </c>
       <c r="U27" s="22" t="n">
-        <v>3600</v>
+        <v>6524.639999999999</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>3600</v>
+        <v>7124.639999999999</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>3600</v>
+        <v>15585.9</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>10000</v>
+        <v>8407.560000000001</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>69750.66166666667</v>
+        <v>65527.21583333333</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11245,10 +11245,10 @@
         <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v/>
+        <v>5300</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>10000</v>
+        <v>8407.560000000001</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v/>
+        <v>175</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>69511.60333333333</v>
+        <v>64982.70916666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>40</v>
@@ -11383,7 +11383,7 @@
         <v/>
       </c>
       <c r="U29" s="22" t="n">
-        <v/>
+        <v>175</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>69002.14333333333</v>
+        <v>64918.20916666667</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>40</v>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>68422.97333333333</v>
+        <v>64856.21583333334</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>40</v>

--- a/Process Results/Unified_IBNP_GTL.xlsx
+++ b/Process Results/Unified_IBNP_GTL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02960787729707781</v>
+        <v>0.4709050977766073</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1778904854715235</v>
+        <v>0.2094853091289371</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1204068265099322</v>
+        <v>0.2692095018671296</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.14360993519961</v>
+        <v>0.2356216713598184</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02960787729707781</v>
+        <v>0.4709050977766073</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1778904854715235</v>
+        <v>0.2094853091289371</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1204068265099322</v>
+        <v>0.2692095018671296</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.14360993519961</v>
+        <v>0.2356216713598184</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02960787729707781</v>
+        <v>0.4728672023506765</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1778904854715235</v>
+        <v>0.210358164583641</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.324451585842168</v>
+        <v>0.2703247027862146</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.22979102652713</v>
+        <v>0.2366009366253209</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03967714686814098</v>
+        <v>0.4728672023506765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2011043065345348</v>
+        <v>0.2459336247138149</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.3695507570508592</v>
+        <v>0.3038109428473921</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.2604664480118269</v>
+        <v>0.2718256106964149</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08365202362285587</v>
+        <v>0.5466720980276789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2722387694587776</v>
+        <v>0.3709502744869824</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4833603396732131</v>
+        <v>0.4379067578935245</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3483048682494563</v>
+        <v>0.401657216386519</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08839856115118194</v>
+        <v>0.6598840536195987</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2802202140831772</v>
+        <v>0.4240911462984277</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5225669666282526</v>
+        <v>0.4760841633063378</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3648135664836995</v>
+        <v>0.4485861284948174</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1370983954081874</v>
+        <v>0.662644305075628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3283250390194261</v>
+        <v>0.425529827174599</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5728370686582206</v>
+        <v>0.5161522784567312</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.4174093680074276</v>
+        <v>0.4664805427097219</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1744145259093415</v>
+        <v>0.7227688637509172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3969940509383374</v>
+        <v>0.5816946049889524</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6394361271027955</v>
+        <v>0.6181505851767943</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.489859025322178</v>
+        <v>0.5993687575951918</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2078553590112999</v>
+        <v>0.9013290267029583</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4483868099755665</v>
+        <v>0.5929852292057436</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6785804708019892</v>
+        <v>0.6269798260130413</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5399740308426559</v>
+        <v>0.6095088941199958</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2116247028277626</v>
+        <v>0.9013290267029583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4543218312407019</v>
+        <v>0.6722908623698651</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.6836352616184084</v>
+        <v>0.6937939929041449</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.5458736992953487</v>
+        <v>0.682873190484207</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3251180851761054</v>
+        <v>0.9235686237249358</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6241260925214728</v>
+        <v>0.7964358132876942</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.755489538916113</v>
+        <v>0.783283978699562</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6835537712387749</v>
+        <v>0.7898051487042952</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4583195484204982</v>
+        <v>0.9235686237249358</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7290997477100495</v>
+        <v>0.7755672019682247</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8088419930339859</v>
+        <v>0.7733232089912719</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7669035535417239</v>
+        <v>0.7744435799598133</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.772996330717926</v>
+        <v>0.9976383814032926</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9287178429398494</v>
+        <v>0.8414067702699582</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9018566316451848</v>
+        <v>0.8790442405656141</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9150901612701443</v>
+        <v>0.8598138170984634</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9967160956133005</v>
+        <v>0.9976383814032926</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9923602824401105</v>
+        <v>0.9234595909338521</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9394493138474811</v>
+        <v>0.952643417951259</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9651802001806243</v>
+        <v>0.937824519102372</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4262,17 +4262,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1</v>
+        <v>0.9980104027851032</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9455281704590728</v>
+        <v>0.9985928191136345</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9720015210429598</v>
+        <v>0.9983015260029018</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,17 +4300,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
+        <v>0.9980104027851032</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1</v>
+        <v>0.9985928191136345</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>1</v>
+        <v>0.9983015260029018</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4836,16 +4836,16 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v/>
+        <v>22.46666666666667</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.133528888888889</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>17.84794780508461</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.012082569202366</v>
+        <v>1.756379821958457</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
@@ -4860,13 +4860,13 @@
         <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.065118128626537</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1</v>
+        <v>1.020463591822943</v>
       </c>
       <c r="N38" s="4" t="n">
         <v>1</v>
@@ -4875,31 +4875,31 @@
         <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1.407580009993862</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4911,13 +4911,13 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v/>
+        <v>1.709048723897912</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.717321997874601</v>
+        <v>1.013032853651914</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>1</v>
@@ -4932,46 +4932,46 @@
         <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>2.051980198019802</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.016232109354061</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.264133884662838</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9198838649859526</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,67 +4983,67 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v/>
+        <v>1.0575</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v/>
+        <v>1.085106382978724</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>3.043165467625899</v>
+        <v>1.496732026143791</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1</v>
+        <v>1.62783114992722</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>3.018912529550827</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.195771339075959</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.049115913555992</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>1.021661778381858</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>1.026257176086224</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1.018901997503121</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5061,16 +5061,16 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.2</v>
+        <v/>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.070833333333333</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
@@ -5082,28 +5082,28 @@
         <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>1.054073214285714</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>1.182057359122181</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>1.107488971631511</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>2.295504603064914</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.023564980544747</v>
+        <v>1.004566359348803</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>1.014094173659973</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>1</v>
@@ -5139,40 +5139,40 @@
         <v/>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.02249550089982</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.548547961278967</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.0121</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.059837960675823</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.02330650288721</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.419651040119818</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.028680621329797</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.074580072757004</v>
+        <v>1.00608179569037</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>1</v>
@@ -5211,22 +5211,22 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>22.46666666666667</v>
+        <v/>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.756379821958457</v>
+        <v/>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
@@ -5241,13 +5241,13 @@
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.020463591822943</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>38.26980614907037</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>1</v>
@@ -5286,22 +5286,22 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.709048723897912</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.013032853651914</v>
+        <v>2.290322580645161</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>2.834647887323944</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>1.03009142402862</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>1.101391015270394</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
@@ -5313,25 +5313,25 @@
         <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.016232109354061</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.264133884662838</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>0.9198838649859526</v>
+        <v>1.087958019797124</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5358,19 +5358,19 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>1.0575</v>
+        <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.085106382978724</v>
+        <v>111.07</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.496732026143791</v>
+        <v>1.321779058251553</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.62783114992722</v>
+        <v>1.032676929364485</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1</v>
+        <v>1.006665246330487</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>1</v>
@@ -5382,28 +5382,28 @@
         <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>1.072075472192628</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.021661778381858</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>1.703163103280939</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.026257176086224</v>
+        <v>0.5871428274095536</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.703163103280939</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.008971255380062</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5442,37 +5442,37 @@
         <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v>87.59111111111112</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.555555555555556</v>
+        <v>1.152897300588593</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.054073214285714</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.182057359122181</v>
+        <v>4.814614480685524</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.107488971631511</v>
+        <v>0.2718999070335475</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v>3.677823986444461</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>2.295504603064914</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1.004566359348803</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>1</v>
@@ -5511,13 +5511,13 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v/>
+        <v>2.011666666666667</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v/>
+        <v>1.081285169842585</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1</v>
+        <v>1.252060973808209</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>1</v>
@@ -5526,28 +5526,28 @@
         <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.0121</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.059837960675823</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1</v>
+        <v>1.122686617071343</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.02330650288721</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>2.419651040119818</v>
+        <v>1.218036122480484</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.00608179569037</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5586,31 +5586,31 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v/>
+        <v>1.688571428571429</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v/>
+        <v>18.08736040609137</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v>2.005970272123544</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>0.9817050535650662</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1</v>
+        <v>1.066505849189436</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>1</v>
@@ -5664,28 +5664,28 @@
         <v/>
       </c>
       <c r="D49" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>2.290322580645161</v>
+        <v>1.243705430081692</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>2.834647887323944</v>
+        <v>1.038051489267821</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.03009142402862</v>
+        <v>1.187146816425311</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.101391015270394</v>
+        <v>1.712039678575695</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>0.6596421270196903</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>1.515973524186623</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1</v>
+        <v>1.032415035521934</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>1</v>
@@ -5736,34 +5736,34 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>111.07</v>
+        <v/>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.321779058251553</v>
+        <v/>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.032676929364485</v>
+        <v/>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.006665246330487</v>
+        <v/>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>6.277991829668648</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.072075472192628</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.703163103280939</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5814,13 +5814,13 @@
         <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v>2.90935</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>87.59111111111112</v>
+        <v>1.137487754996821</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.152897300588594</v>
+        <v>1.787586686207261</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5829,13 +5829,13 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>9.452013692262179</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>4.814614480685524</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5886,13 +5886,13 @@
         <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>2.011666666666667</v>
+        <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.081285169842585</v>
+        <v>1.091959096593835</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.252060973808209</v>
+        <v>2.187605268476723</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>1</v>
@@ -5901,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>1.320802776868837</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
@@ -5961,25 +5961,25 @@
         <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.688571428571429</v>
+        <v>1.586332075471698</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>2.189405725323399</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>18.08736040609137</v>
+        <v>1.016351977122443</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>2.005970272123544</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6042,16 +6042,16 @@
         <v>1</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.243705430081692</v>
+        <v>115.4942857142857</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.038051489267821</v>
+        <v>1.029686069811741</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.187146816425311</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.712039678575695</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6114,16 +6114,16 @@
         <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v/>
+        <v>1.451159759057808</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v/>
+        <v>1.009292960582359</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v/>
+        <v>1.00483388321952</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6189,13 +6189,13 @@
         <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v>2.90935</v>
+        <v/>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.137487754996821</v>
+        <v>3.873271889400922</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.787586686207261</v>
+        <v>1.812433075550268</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.091959096593835</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>2.187605268476723</v>
+        <v>1.015</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6339,7 +6339,7 @@
         <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.586332075471698</v>
+        <v/>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6411,7 +6411,7 @@
         <v/>
       </c>
       <c r="C59" s="4" t="n">
-        <v/>
+        <v>1.025</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.136585220734477</v>
+        <v>0.2072691217712609</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1204068265099322</v>
+        <v>0.2692095018671296</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1778904854715235</v>
+        <v>0.2094853091289371</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.02960787729707781</v>
+        <v>0.4709050977766073</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.0007442915761607485</v>
+        <v>5.253853782050003e-05</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.0002168979235364359</v>
+        <v>0.000385040604128519</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.0208316637553916</v>
+        <v>0.0002715820038414695</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.002361677650866814</v>
+        <v>0.08479706919399059</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.14360993519961</v>
+        <v>0.2356216713598184</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>1.0575</v>
+        <v>1.009583333333333</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q2" s="22" t="n">
         <v/>
       </c>
       <c r="R2" s="22" t="n">
-        <v>1.0575</v>
+        <v>1.02875</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U2" s="22" t="n">
         <v/>
       </c>
       <c r="V2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.1444388709267094</v>
+        <v>0.2092554508549021</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.1204068265099322</v>
+        <v>0.2692095018671296</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.1778904854715235</v>
+        <v>0.2094853091289371</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.02960787729707781</v>
+        <v>0.4709050977766073</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.0007870883417899915</v>
+        <v>5.404902078283941e-05</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.0002168979235364359</v>
+        <v>0.000385040604128519</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.0208316637553916</v>
+        <v>0.0002715820038414695</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.002361677650866814</v>
+        <v>0.08479706919399059</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.14360993519961</v>
+        <v>0.2356216713598184</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.950199789695058</v>
+        <v>1.445228088159918</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>2.69462783171521</v>
+        <v>1.004142502071251</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v/>
+        <v>1.004166666666667</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v/>
+        <v>1.004166666666667</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>19.97620567375887</v>
+        <v>17.58230496453901</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>38.02722222222223</v>
+        <v>1.008333333333334</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v/>
+        <v>1.0125</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v/>
+        <v>1.0125</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.347313915857605</v>
+        <v>1.004154584368959</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.2816846557050603</v>
+        <v>0.3024218551760719</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.324451585842168</v>
+        <v>0.2703247027862146</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.1778904854715235</v>
+        <v>0.210358164583641</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.02960787729707781</v>
+        <v>0.4728672023506765</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.01572303859901468</v>
+        <v>0.0009503063664385893</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.008248025537858614</v>
+        <v>0.00038824927582959</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.0208316637553916</v>
+        <v>0.0002749767788894879</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.002361677650866814</v>
+        <v>0.0858570325589155</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.22979102652713</v>
+        <v>0.2366009366253209</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.218389016132245</v>
+        <v>1.177889787327751</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.139001235243245</v>
+        <v>1.123874139936297</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.1304950121502</v>
+        <v>1.169118513657827</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.340087520291668</v>
+        <v>1</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.447192548095046</v>
+        <v>1.355747822522041</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.459909603591387</v>
+        <v>1.423184169948595</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.655242520127392</v>
+        <v>1.259372958632377</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.862547057355178</v>
+        <v>1</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.134748123696722</v>
+        <v>1.146496326797062</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.3432014905240385</v>
+        <v>0.3562196146766072</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.3695507570508592</v>
+        <v>0.3038109428473921</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.2011043065345348</v>
+        <v>0.2459336247138149</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.03967714686814098</v>
+        <v>0.4728672023506765</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.02275426429390483</v>
+        <v>0.00128837578702795</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.01204137169338681</v>
+        <v>0.0005525502233546782</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.03448145561292085</v>
+        <v>0.0003462983195852552</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.004398735759043474</v>
+        <v>0.0858570325589155</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.2604664480118269</v>
+        <v>0.2718256106964149</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.373496599769111</v>
+        <v>1.346042184460308</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.307967391355367</v>
+        <v>1.44137914779946</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.353719242268077</v>
+        <v>1.508334921337598</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>2.108317513375056</v>
+        <v>1.15607954053508</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>7.027202878683419</v>
+        <v>12.60872724120309</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>9.973497004848422</v>
+        <v>19.81756607527882</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.364171885472689</v>
+        <v>20.96147692634485</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.662546511736772</v>
+        <v>1.965854949994427</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.330843316811722</v>
+        <v>1.474857034568529</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.4713860802704578</v>
+        <v>0.4794866282869096</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.4833603396732131</v>
+        <v>0.4379067578935245</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.2722387694587776</v>
+        <v>0.3709502744869824</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.08365202362285587</v>
+        <v>0.5466720980276789</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.1598988315484514</v>
+        <v>0.01624477888280579</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.1200945845182599</v>
+        <v>0.0109502005612414</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.04703863231732106</v>
+        <v>0.007258924235618323</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.007313102792249529</v>
+        <v>0.1687824724477767</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.3483048682494563</v>
+        <v>0.401657216386519</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.106020413694853</v>
+        <v>1.139633026481396</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.081112627034204</v>
+        <v>1.087181585405211</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.029317810392205</v>
+        <v>1.143256052000334</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.056741454931512</v>
+        <v>1.207092983161887</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.243756856260852</v>
+        <v>1.292866883283156</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.337540416527366</v>
+        <v>1.166559431906881</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.195707095212735</v>
+        <v>1.272423285798131</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.412819087737541</v>
+        <v>1.282317676193843</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.055215218713204</v>
+        <v>1.115218818702773</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.5213626275107268</v>
+        <v>0.5464387973519709</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.5225669666282526</v>
+        <v>0.4760841633063378</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.2802202140831772</v>
+        <v>0.4240911462984277</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.08839856115118194</v>
+        <v>0.6598840536195987</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.1988752680464855</v>
+        <v>0.02100233664383714</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.1606313605992344</v>
+        <v>0.01277405974598818</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.05624442641092386</v>
+        <v>0.009236424227245155</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.01033209121547684</v>
+        <v>0.2164327478514843</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.3648135664836995</v>
+        <v>0.4485861284948174</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.13188104066357</v>
+        <v>1.056439088233887</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.096198392244969</v>
+        <v>1.084161831538621</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.171667932999188</v>
+        <v>1.00339238602062</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.550912069413862</v>
+        <v>1.004182934018315</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>2.207719448506008</v>
+        <v>2.082559413979234</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>2.73045986465453</v>
+        <v>2.574631874878886</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>4.454901444503337</v>
+        <v>1.003270395424489</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>9.637253611258341</v>
+        <v>1.005450659040814</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.133933162622078</v>
+        <v>1.04377710877962</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.5901204733899347</v>
+        <v>0.5772793048501377</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.5728370686582206</v>
+        <v>0.5161522784567312</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.3283250390194261</v>
+        <v>0.425529827174599</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.1370983954081874</v>
+        <v>0.662644305075628</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.4390607970930716</v>
+        <v>0.04373861389318406</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.4385974831210584</v>
+        <v>0.03288850139362846</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.2505633764632864</v>
+        <v>0.009266630986776575</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.09957298337820479</v>
+        <v>0.2176124489652893</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.4174093680074276</v>
+        <v>0.4664805427097219</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.10351422218463</v>
+        <v>1.128999500403918</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.116261782081548</v>
+        <v>1.197612818885607</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.209149482244783</v>
+        <v>1.366989028363169</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.272185027330565</v>
+        <v>1.090734287180552</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.063831377057628</v>
+        <v>1.401520331273973</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.075048244895099</v>
+        <v>1.582929572762143</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.135571782307681</v>
+        <v>2.05180571418553</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.237346559525232</v>
+        <v>1.106934258956279</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.162705632163166</v>
+        <v>1.282300923624388</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.6512063351881193</v>
+        <v>0.6517480467693265</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.6394361271027955</v>
+        <v>0.6181505851767943</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.3969940509383374</v>
+        <v>0.5816946049889524</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.1744145259093415</v>
+        <v>0.7227688637509172</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.4670866523835421</v>
+        <v>0.06130055663303974</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.4715134544447016</v>
+        <v>0.05206018145980344</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.2845326999914447</v>
+        <v>0.01901332640991687</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.1232062884046848</v>
+        <v>0.2408826749350535</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.489859025322178</v>
+        <v>0.5993687575951918</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.050707047748358</v>
+        <v>1.010050050087765</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.06121697232928</v>
+        <v>1.01428331712041</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.129454733429271</v>
+        <v>1.019409882986633</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.191731926728056</v>
+        <v>1.247050159335</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.06968275914721</v>
+        <v>1.573591503255077</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.088817352733281</v>
+        <v>1.76478867100677</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.167661712020591</v>
+        <v>2.519604348567569</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.335323424041182</v>
+        <v>3.817337897420727</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.095335852879276</v>
+        <v>1.016846600053521</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.6842270859205363</v>
+        <v>0.6582981472839615</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.6785804708019892</v>
+        <v>0.6269798260130413</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.4483868099755665</v>
+        <v>0.5929852292057436</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.2078553590112999</v>
+        <v>0.9013290267029583</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.4996345390824611</v>
+        <v>0.09646203506255802</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.5133920312466043</v>
+        <v>0.09187521845081779</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.3322379395978514</v>
+        <v>0.04790605990316116</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.164520242895949</v>
+        <v>0.9195305638616577</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.5399740308426559</v>
+        <v>0.6095088941199958</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.012663946003146</v>
+        <v>1.075340976811962</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.007449066151941</v>
+        <v>1.106565098459346</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.013236386827389</v>
+        <v>1.133739643515818</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.018134455779212</v>
+        <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.07854192563321</v>
+        <v>1.041588484282002</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.010512390539862</v>
+        <v>1.051985605352503</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.012012578698771</v>
+        <v>1.082946429625282</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.024025157397543</v>
+        <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.010342726489664</v>
+        <v>1.120152370987582</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.6928921007905237</v>
+        <v>0.7078949727338399</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.6836352616184084</v>
+        <v>0.6937939929041449</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.4543218312407019</v>
+        <v>0.6722908623698651</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.2116247028277626</v>
+        <v>0.9013290267029583</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.5388767978948588</v>
+        <v>0.1004737448915672</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.5187890087791215</v>
+        <v>0.09665140729887699</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.3362289739939883</v>
+        <v>0.05187969652954324</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.1684728676266061</v>
+        <v>0.9195305638616577</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.5458736992953487</v>
+        <v>0.682873190484207</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.098980301034221</v>
+        <v>1.104966406678857</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.105106160158562</v>
+        <v>1.128986394680101</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.37375325067927</v>
+        <v>1.184659583919095</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.536295530870576</v>
+        <v>1.024674227017108</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.291675124772579</v>
+        <v>1.302852937140877</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.33486113484913</v>
+        <v>1.353328426664357</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.666111973301284</v>
+        <v>1.672703663744706</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>2.271538160228508</v>
+        <v>1.010805011840645</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.239429705418916</v>
+        <v>1.156822989299598</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.7614747695110038</v>
+        <v>0.7822001643277388</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.755489538916113</v>
+        <v>0.783283978699562</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.6241260925214728</v>
+        <v>0.7964358132876942</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.3251180851761054</v>
+        <v>0.9235686237249358</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.6960537551578894</v>
+        <v>0.1309025136375215</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.6925112850061537</v>
+        <v>0.1308010969746851</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.5601951193421899</v>
+        <v>0.08677935845893049</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.3826925477769618</v>
+        <v>0.9294661024920176</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.6835537712387749</v>
+        <v>0.7898051487042952</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.062204586966683</v>
+        <v>0.9886512995761179</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.070619712609676</v>
+        <v>0.9872833225507467</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.168193024528878</v>
+        <v>0.9737974975870012</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.409701795494527</v>
+        <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.065399283627209</v>
+        <v>1.009391584168251</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.070849223929477</v>
+        <v>1.010174216182272</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.138993096299943</v>
+        <v>0.9958438350524145</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.234387701093646</v>
+        <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.119406368569277</v>
+        <v>0.9805404100688739</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.8088419930339859</v>
+        <v>0.7733232089912719</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.8088419930339859</v>
+        <v>0.7733232089912719</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.7290997477100495</v>
+        <v>0.7755672019682247</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.4583195484204982</v>
+        <v>0.9235686237249358</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.7415751721112442</v>
+        <v>0.1321318956121839</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.7415751721112442</v>
+        <v>0.1321318956121839</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.6380583735116772</v>
+        <v>0.08641868913112952</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.4723909742760742</v>
+        <v>0.9294661024920176</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.7669035535417239</v>
+        <v>0.7744435799598133</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.114997291698838</v>
+        <v>1.136710020267264</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.114997291698838</v>
+        <v>1.136710020267264</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.27378708586412</v>
+        <v>1.084892151363088</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.686588174957614</v>
+        <v>1.080199517150787</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.144208807724319</v>
+        <v>1.351125719085527</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.144208807724319</v>
+        <v>1.351125719085527</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.28500701681148</v>
+        <v>1.413833822722417</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.473217013373273</v>
+        <v>1.072678707493494</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.194392188781479</v>
+        <v>1.110801085815176</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9018566316451848</v>
+        <v>0.8790442405656141</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9018566316451848</v>
+        <v>0.8790442405656141</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9287178429398494</v>
+        <v>0.8414067702699582</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.772996330717926</v>
+        <v>0.9976383814032926</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.8485168435193632</v>
+        <v>0.1785268024731458</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.8485168435193632</v>
+        <v>0.1785268024731458</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.8199094870978254</v>
+        <v>0.122181665608925</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.6959344202674888</v>
+        <v>0.9970184974801533</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9150901612701443</v>
+        <v>0.8598138170984634</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.041683656673588</v>
+        <v>1.08372636323547</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.041683656673588</v>
+        <v>1.08372636323547</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.068527206604324</v>
+        <v>1.097518612356266</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.289418922192804</v>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.113097189943697</v>
+        <v>1.182409962829903</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.113097189943697</v>
+        <v>1.182409962829903</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.202564744675144</v>
+        <v>1.13185352051301</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.431834867688304</v>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.055105431638956</v>
+        <v>1.090622487795868</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9394493138474811</v>
+        <v>0.952643417951259</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9394493138474811</v>
+        <v>0.952643417951259</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9923602824401105</v>
+        <v>0.9234595909338521</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9967160956133005</v>
+        <v>0.9976383814032926</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9444817141412984</v>
+        <v>0.2110918698764137</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9444817141412984</v>
+        <v>0.2110918698764137</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9859942430085249</v>
+        <v>0.1382917483616052</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9964631685634365</v>
+        <v>0.9970184974801533</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9651802001806243</v>
+        <v>0.937824519102372</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.006470659483156</v>
+        <v>1.048233578584098</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.006470659483156</v>
+        <v>1.048233578584098</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.007698532171304</v>
+        <v>1.080729912367753</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.003294723945116</v>
+        <v>1.002367209041602</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.010879320834093</v>
+        <v>4.72894255594896</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.010879320834093</v>
+        <v>4.72894255594896</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.014204704632696</v>
+        <v>7.214143200023467</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.003549385013058</v>
+        <v>1.002990418460021</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.00708459582723</v>
+        <v>1.064481745475926</v>
       </c>
     </row>
     <row r="16">
@@ -7599,41 +7599,41 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9455281704590728</v>
+        <v>0.9985928191136345</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9455281704590728</v>
+        <v>0.9985928191136345</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>1</v>
+        <v>0.9980104027851032</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9547570337313754</v>
+        <v>0.9982413266734128</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9547570337313754</v>
+        <v>0.9982413266734128</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>1</v>
+        <v>0.9976564760622302</v>
       </c>
       <c r="I16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9720015210429598</v>
+        <v>0.9983015260029018</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.057609948854808</v>
+        <v>1</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.057609948854808</v>
+        <v>1</v>
       </c>
       <c r="P16" s="22" t="n">
         <v>1</v>
@@ -7642,10 +7642,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.047386889721887</v>
+        <v>1</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.047386889721887</v>
+        <v>1</v>
       </c>
       <c r="T16" s="22" t="n">
         <v>1</v>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.028804974427404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>1</v>
+        <v>0.9985928191136345</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>1</v>
+        <v>0.9985928191136345</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>1</v>
+        <v>0.9980104027851032</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>1</v>
+        <v>0.9982413266734128</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>1</v>
+        <v>0.9982413266734128</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>1</v>
+        <v>0.9976564760622302</v>
       </c>
       <c r="I17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>1</v>
+        <v>0.9983015260029018</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1</v>
+        <v>1.00140916383478</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1</v>
+        <v>1.00140916383478</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1</v>
+        <v>1.00199356360349</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1</v>
+        <v>1.001761771707497</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1</v>
+        <v>1.001761771707497</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1</v>
+        <v>1.002349028943329</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1</v>
+        <v>1.001701363719135</v>
       </c>
     </row>
     <row r="18">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>74977.98416666668</v>
+        <v>72660.90083333333</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8608,73 +8608,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v/>
+        <v>750</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1125</v>
+        <v>16850</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1275.22</v>
+        <v>16850</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>22760.06</v>
+        <v>16850</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>23035.06</v>
+        <v>29595</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>23035.06</v>
+        <v>29595</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>23035.06</v>
+        <v>29595</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>23035.06</v>
+        <v>29595</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>23035.06</v>
+        <v>29595</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>24535.06</v>
+        <v>29595</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>24535.06</v>
+        <v>29595</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>24535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>24535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>24535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>34535.06</v>
+        <v>30200.62</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>74528.8275</v>
+        <v>71981.79916666666</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8735,70 +8735,70 @@
         <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v/>
+        <v>10775</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v/>
+        <v>10775</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>941</v>
+        <v>18415</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>1616</v>
+        <v>18655</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>1616</v>
+        <v>18655</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>1616</v>
+        <v>18655</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>1616</v>
+        <v>18655</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>1616</v>
+        <v>18655</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>3316</v>
+        <v>18655</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>3316</v>
+        <v>18655</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>3316</v>
+        <v>18957.81</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>3316</v>
+        <v>23965.21</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>3316</v>
+        <v>22045.21</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>32645.62</v>
+        <v>29313.62</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>73976.9975</v>
+        <v>71135.60833333332</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v/>
+        <v>10000</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v/>
+        <v>10575</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>2780</v>
+        <v>11475</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>8460</v>
+        <v>17175</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>8460</v>
+        <v>27958</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>8460</v>
+        <v>27958</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>25540</v>
+        <v>27958</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>30540</v>
+        <v>27958</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>32040</v>
+        <v>27958</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>32040</v>
+        <v>27958</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>32040</v>
+        <v>28563.62</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>32040</v>
+        <v>28563.62</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>32040</v>
+        <v>29313.62</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>32040</v>
+        <v>29313.62</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>32040</v>
+        <v>29313.62</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>32645.62</v>
+        <v>29313.62</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>32645.62</v>
+        <v>29313.62</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>32645.62</v>
+        <v>29313.62</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>32645.62</v>
+        <v>29313.62</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>32645.62</v>
+        <v>29313.62</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>32645.62</v>
+        <v>29313.62</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>32645.62</v>
+        <v>29313.62</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>13152.81</v>
+        <v>18070.57</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>73669.02916666666</v>
+        <v>70269.655</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8989,64 +8989,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>10000</v>
+        <v/>
       </c>
       <c r="U11" s="22" t="n">
-        <v>12000</v>
+        <v>3600</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>12850</v>
+        <v>3600</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>12850</v>
+        <v>3600</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>12850</v>
+        <v>5600</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>12850</v>
+        <v>5600</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>12850</v>
+        <v>5600</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>12850</v>
+        <v>5600</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>12850</v>
+        <v>5902.81</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>12850</v>
+        <v>6977.460000000001</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>12850</v>
+        <v>7727.460000000001</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>12850</v>
+        <v>7727.460000000001</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>12850</v>
+        <v>17738.42</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>13152.81</v>
+        <v>17819.42</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>13152.81</v>
+        <v>17819.42</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>13152.81</v>
+        <v>18070.57</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>13152.81</v>
+        <v>18070.57</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>13152.81</v>
+        <v>18070.57</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>13152.81</v>
+        <v>18070.57</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>13152.81</v>
+        <v>18070.57</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>11670.81</v>
+        <v>26721.12</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>73100.85583333332</v>
+        <v>69750.66166666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9119,58 +9119,58 @@
         <v/>
       </c>
       <c r="U12" s="22" t="n">
-        <v>6668</v>
+        <v/>
       </c>
       <c r="V12" s="22" t="n">
-        <v>6818</v>
+        <v>10000</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>10558</v>
+        <v>10000</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>10558</v>
+        <v>10000</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>10558</v>
+        <v>10000</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>10558</v>
+        <v>10121</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>10558</v>
+        <v>10726.62</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>10558</v>
+        <v>10726.62</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>10558</v>
+        <v>10726.62</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>10558</v>
+        <v>10976.62</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>10558</v>
+        <v>26559.59</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>10860.81</v>
+        <v>26559.59</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>11670.81</v>
+        <v>26721.12</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>11670.81</v>
+        <v>26721.12</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>11670.81</v>
+        <v>26721.12</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>11670.81</v>
+        <v>26721.12</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>11670.81</v>
+        <v>26721.12</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>11670.81</v>
+        <v>26721.12</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>30200.62</v>
+        <v>11588.48</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>72660.90083333333</v>
+        <v>69511.60333333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>750</v>
+        <v/>
       </c>
       <c r="U13" s="22" t="n">
-        <v>16850</v>
+        <v/>
       </c>
       <c r="V13" s="22" t="n">
-        <v>16850</v>
+        <v/>
       </c>
       <c r="W13" s="22" t="n">
-        <v>16850</v>
+        <v/>
       </c>
       <c r="X13" s="22" t="n">
-        <v>29595</v>
+        <v/>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>29595</v>
+        <v/>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>29595</v>
+        <v>302.81</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>29595</v>
+        <v>302.81</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>29595</v>
+        <v>302.81</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>29595</v>
+        <v>302.81</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>29595</v>
+        <v>302.81</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>30200.62</v>
+        <v>302.81</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>30200.62</v>
+        <v>302.81</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>30200.62</v>
+        <v>11588.48</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>30200.62</v>
+        <v>11588.48</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>30200.62</v>
+        <v>11588.48</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>30200.62</v>
+        <v>11588.48</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>30200.62</v>
+        <v>11588.48</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>22045.21</v>
+        <v>12421.01</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>71981.79916666666</v>
+        <v>69002.14333333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>10775</v>
+        <v/>
       </c>
       <c r="U14" s="22" t="n">
-        <v>10775</v>
+        <v/>
       </c>
       <c r="V14" s="22" t="n">
-        <v>18415</v>
+        <v>1550</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>18655</v>
+        <v>3550</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>18655</v>
+        <v>10063</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>18655</v>
+        <v>10365.81</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>18655</v>
+        <v>11416.81</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>18655</v>
+        <v>11416.81</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>18655</v>
+        <v>11416.81</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>18655</v>
+        <v>11416.81</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>18957.81</v>
+        <v>11416.81</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>23965.21</v>
+        <v>11416.81</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>22045.21</v>
+        <v>12421.01</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>22045.21</v>
+        <v>12421.01</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>22045.21</v>
+        <v>12421.01</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>22045.21</v>
+        <v>12421.01</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>22045.21</v>
+        <v>12421.01</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>29313.62</v>
+        <v>28116.78</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>71135.60833333332</v>
+        <v>68422.97333333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>10000</v>
+        <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>10575</v>
+        <v>100</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>11475</v>
+        <v>11107</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>17175</v>
+        <v>14681</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>27958</v>
+        <v>15160.73</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>27958</v>
+        <v>15261.78</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>27958</v>
+        <v>15261.78</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>27958</v>
+        <v>15261.78</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>27958</v>
+        <v>15261.78</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>27958</v>
+        <v>16361.78</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>28563.62</v>
+        <v>16361.78</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>28563.62</v>
+        <v>27866.78</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>29313.62</v>
+        <v>16361.78</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>29313.62</v>
+        <v>27866.78</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>29313.62</v>
+        <v>28116.78</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>29313.62</v>
+        <v>28116.78</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>29313.62</v>
+        <v>28116.78</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>17819.42</v>
+        <v>21878.86</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>70269.655</v>
+        <v>68103.72333333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9627,46 +9627,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>3600</v>
+        <v>45</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>3600</v>
+        <v>45</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>3600</v>
+        <v>3941.6</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>5600</v>
+        <v>4544.26</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>5600</v>
+        <v>4544.26</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>5600</v>
+        <v>4544.26</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>5600</v>
+        <v>4544.26</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>5902.81</v>
+        <v>4544.26</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>6977.460000000001</v>
+        <v>21878.86</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>7727.460000000001</v>
+        <v>5948.860000000001</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>7727.460000000001</v>
+        <v>21878.86</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>17738.42</v>
+        <v>21878.86</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>17819.42</v>
+        <v>21878.86</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>17819.42</v>
+        <v>21878.86</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>26721.12</v>
+        <v>55863.96</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>69750.66166666667</v>
+        <v>67665.97500000001</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9751,46 +9751,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v/>
+        <v>15000</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v/>
+        <v>30175</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>10000</v>
+        <v>32627.78</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>10000</v>
+        <v>40851.97</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>10000</v>
+        <v>40851.97</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>10000</v>
+        <v>40851.97</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>10121</v>
+        <v>40851.97</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>10726.62</v>
+        <v>40851.97</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>10726.62</v>
+        <v>40851.97</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>10726.62</v>
+        <v>45863.96</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>10976.62</v>
+        <v>45863.96</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>26559.59</v>
+        <v>55863.96</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>26559.59</v>
+        <v>55863.96</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>26721.12</v>
+        <v>55863.96</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>302.81</v>
+        <v>22450.78</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>69511.60333333333</v>
+        <v>67122.17333333334</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v/>
+        <v>350</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v/>
+        <v>350</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v/>
+        <v>591</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v/>
+        <v>591</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v/>
+        <v>591</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v/>
+        <v>10689.63</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>302.81</v>
+        <v>10689.63</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>302.81</v>
+        <v>21443.08</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>302.81</v>
+        <v>21050.78</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>302.81</v>
+        <v>22450.78</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>302.81</v>
+        <v>22450.78</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>302.81</v>
+        <v>22450.78</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>302.81</v>
+        <v>22450.78</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>11416.81</v>
+        <v>56374.29000000001</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>69002.14333333333</v>
+        <v>66819.17666666667</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10011,37 +10011,37 @@
         <v/>
       </c>
       <c r="U19" s="22" t="n">
-        <v/>
+        <v>20810</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1550</v>
+        <v>20810</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>3550</v>
+        <v>25881.51</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>10063</v>
+        <v>26866.34</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>10365.81</v>
+        <v>31894.29</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>11416.81</v>
+        <v>54604.29000000001</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>11416.81</v>
+        <v>36019.29000000001</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>11416.81</v>
+        <v>54604.29000000001</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>11416.81</v>
+        <v>56374.29000000001</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>11416.81</v>
+        <v>56374.29000000001</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>11416.81</v>
+        <v>56374.29000000001</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>27866.78</v>
+        <v>5947.33</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>68422.97333333333</v>
+        <v>66590.50666666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10144,37 +10144,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="U20" s="22" t="n">
-        <v>11107</v>
+        <v/>
       </c>
       <c r="V20" s="22" t="n">
-        <v>14681</v>
+        <v/>
       </c>
       <c r="W20" s="22" t="n">
-        <v>15160.73</v>
+        <v/>
       </c>
       <c r="X20" s="22" t="n">
-        <v>15261.78</v>
+        <v/>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>15261.78</v>
+        <v>947.3299999999999</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>15261.78</v>
+        <v>5947.33</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>15261.78</v>
+        <v>5947.33</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>16361.78</v>
+        <v>5947.33</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>16361.78</v>
+        <v>5947.33</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>27866.78</v>
+        <v>5947.33</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>21878.86</v>
+        <v>11183.15</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>68103.72333333333</v>
+        <v>66219.25083333334</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10283,31 +10283,31 @@
         <v/>
       </c>
       <c r="U21" s="22" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>45</v>
+        <v>581.87</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>3941.6</v>
+        <v>661.87</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>4544.26</v>
+        <v>1183.15</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>4544.26</v>
+        <v>1183.15</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>4544.26</v>
+        <v>1183.15</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>4544.26</v>
+        <v>11183.15</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>4544.26</v>
+        <v>11183.15</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>21878.86</v>
+        <v>11183.15</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>40851.97</v>
+        <v>20585.9</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>67665.97500000001</v>
+        <v>65710.0825</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10416,31 +10416,31 @@
         <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>15000</v>
+        <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>30175</v>
+        <v>6524.639999999999</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>32627.78</v>
+        <v>7124.639999999999</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>40851.97</v>
+        <v>15585.9</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>40851.97</v>
+        <v>15585.9</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>40851.97</v>
+        <v>15585.9</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>40851.97</v>
+        <v>20585.9</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>40851.97</v>
+        <v>20585.9</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>40851.97</v>
+        <v>20585.9</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>21443.08</v>
+        <v>18708.56</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>67122.17333333334</v>
+        <v>65527.21583333333</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10552,28 +10552,28 @@
         <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>350</v>
+        <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>350</v>
+        <v>5300</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>591</v>
+        <v>8407.559999999999</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>591</v>
+        <v>18407.56</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>591</v>
+        <v>18407.56</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>10689.63</v>
+        <v>18708.56</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>10689.63</v>
+        <v>18708.56</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>21443.08</v>
+        <v>18708.56</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>54604.29000000001</v>
+        <v>20811.5</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>66819.17666666667</v>
+        <v>64982.70916666667</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10693,22 +10693,22 @@
         <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v>20810</v>
+        <v>175</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>20810</v>
+        <v>175</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>25881.51</v>
+        <v>20211.5</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>26866.34</v>
+        <v>20811.5</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>31894.29</v>
+        <v>20811.5</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>54604.29000000001</v>
+        <v>20811.5</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>947.3299999999999</v>
+        <v>32740</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>66590.50666666667</v>
+        <v>64918.20916666667</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10831,19 +10831,19 @@
         <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v/>
+        <v>22246</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v/>
+        <v>32282.5</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v/>
+        <v>32582.5</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v/>
+        <v>32740</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>947.3299999999999</v>
+        <v>32740</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>1183.15</v>
+        <v>30467</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>66219.25083333334</v>
+        <v>64856.21583333334</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10969,16 +10969,16 @@
         <v/>
       </c>
       <c r="U26" s="22" t="n">
-        <v>200</v>
+        <v/>
       </c>
       <c r="V26" s="22" t="n">
-        <v>581.87</v>
+        <v>4340</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>661.87</v>
+        <v>16810</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>1183.15</v>
+        <v>30467</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>15585.9</v>
+        <v>50750</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>65710.0825</v>
+        <v>64123.19</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>6524.639999999999</v>
+        <v>50000</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>7124.639999999999</v>
+        <v>50000</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>15585.9</v>
+        <v>50750</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>8407.560000000001</v>
+        <v>1250</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>65527.21583333333</v>
+        <v>63189.12166666667</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11245,10 +11245,10 @@
         <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v>5300</v>
+        <v/>
       </c>
       <c r="V28" s="22" t="n">
-        <v>8407.560000000001</v>
+        <v>1250</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>175</v>
+        <v>10250</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>64982.70916666667</v>
+        <v>62389.23500000001</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>40</v>
@@ -11380,10 +11380,10 @@
         <v/>
       </c>
       <c r="T29" s="22" t="n">
-        <v/>
+        <v>10000</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>175</v>
+        <v>10250</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v/>
+        <v>270</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>64918.20916666667</v>
+        <v>61637.005</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>40</v>
@@ -11518,7 +11518,7 @@
         <v/>
       </c>
       <c r="T30" s="22" t="n">
-        <v/>
+        <v>270</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>64856.21583333334</v>
+        <v>61131.18166666667</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>40</v>
